--- a/RAHUL ABSENT DATA SHEET -2020.xlsx
+++ b/RAHUL ABSENT DATA SHEET -2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="20730" windowHeight="9975" activeTab="12"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="20730" windowHeight="9975" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1-A" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="1200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="1199">
   <si>
     <t>Sr.N</t>
   </si>
@@ -3542,9 +3542,6 @@
     <t>17/07/2020        (2)</t>
   </si>
   <si>
-    <t>18/07/2020        (2)</t>
-  </si>
-  <si>
     <t xml:space="preserve">CLASS 1- B (2020-21)  Absent  Report </t>
   </si>
   <si>
@@ -3575,9 +3572,6 @@
     <t>17/07/2020        (3)</t>
   </si>
   <si>
-    <t>18/07/2020        (3)</t>
-  </si>
-  <si>
     <t xml:space="preserve">CLASS IV  - A  (2020-21)  Absent  Report </t>
   </si>
   <si>
@@ -3636,6 +3630,9 @@
   </si>
   <si>
     <t>VANSHIKA</t>
+  </si>
+  <si>
+    <t>18/07/2020        (1)</t>
   </si>
 </sst>
 </file>
@@ -3948,7 +3945,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4220,6 +4217,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4250,8 +4256,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4616,8 +4625,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4629,22 +4638,22 @@
     <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="93" customWidth="1"/>
     <col min="9" max="9" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>1162</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
     </row>
     <row r="2" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
@@ -4672,7 +4681,7 @@
         <v>1167</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>1168</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4763,7 +4772,9 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="H7" s="10">
+        <v>1</v>
+      </c>
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4781,7 +4792,9 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="71">
@@ -4815,7 +4828,9 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="I10" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="49" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="71">
@@ -4850,7 +4865,9 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="H12" s="10">
+        <v>1</v>
+      </c>
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4890,7 +4907,9 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="10">
+        <v>1</v>
+      </c>
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4911,7 +4930,9 @@
       <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="H15" s="10"/>
+      <c r="H15" s="10">
+        <v>2</v>
+      </c>
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4945,7 +4966,9 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="H17" s="10">
+        <v>1</v>
+      </c>
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4966,7 +4989,9 @@
       <c r="G18" s="10">
         <v>1</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="10">
+        <v>1</v>
+      </c>
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4985,7 +5010,9 @@
         <v>1</v>
       </c>
       <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="H19" s="10">
+        <v>1</v>
+      </c>
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5010,8 +5037,12 @@
       <c r="G20" s="10">
         <v>1</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
+      <c r="H20" s="10">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="71">
@@ -5067,7 +5098,9 @@
         <v>1</v>
       </c>
       <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="H23" s="10">
+        <v>1</v>
+      </c>
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" s="49" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5085,7 +5118,9 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
+      <c r="I24" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="71">
@@ -5155,8 +5190,12 @@
       <c r="G27" s="10">
         <v>2</v>
       </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
+      <c r="H27" s="10">
+        <v>1</v>
+      </c>
+      <c r="I27" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:9" s="49" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="71">
@@ -5248,8 +5287,12 @@
       <c r="G32" s="10">
         <v>1</v>
       </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
+      <c r="H32" s="10">
+        <v>1</v>
+      </c>
+      <c r="I32" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="71">
@@ -5304,7 +5347,9 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
+      <c r="I35" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="71">
@@ -5338,8 +5383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5349,21 +5394,21 @@
     <col min="5" max="5" width="12.42578125" style="93" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" style="93" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="93" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="13" style="93" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="93" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
+      <c r="A1" s="106" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
     </row>
     <row r="2" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
@@ -5376,22 +5421,22 @@
         <v>602</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>1174</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>1175</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>1176</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>1177</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>1178</v>
-      </c>
       <c r="I2" s="9" t="s">
-        <v>1179</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5408,8 +5453,8 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
@@ -5431,8 +5476,12 @@
       <c r="G4" s="10">
         <v>3</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="10">
+        <v>3</v>
+      </c>
+      <c r="I4" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
@@ -5452,8 +5501,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="10">
+        <v>2</v>
+      </c>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
@@ -5469,8 +5520,8 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
@@ -5488,8 +5539,8 @@
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
@@ -5505,8 +5556,8 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
@@ -5522,8 +5573,8 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
@@ -5539,8 +5590,8 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
@@ -5556,8 +5607,8 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
@@ -5575,8 +5626,8 @@
       <c r="G12" s="10">
         <v>2</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
@@ -5592,8 +5643,8 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
@@ -5613,8 +5664,8 @@
       <c r="G14" s="10">
         <v>1</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
@@ -5634,8 +5685,10 @@
         <v>2</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="H15" s="10">
+        <v>1</v>
+      </c>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
@@ -5657,8 +5710,8 @@
       <c r="G16" s="10">
         <v>1</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
@@ -5676,8 +5729,8 @@
         <v>1</v>
       </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
@@ -5693,8 +5746,8 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
@@ -5712,8 +5765,10 @@
       <c r="G19" s="10">
         <v>2</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="H19" s="10">
+        <v>1</v>
+      </c>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36">
@@ -5731,8 +5786,8 @@
         <v>2</v>
       </c>
       <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
@@ -5750,8 +5805,10 @@
       <c r="G21" s="10">
         <v>1</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="H21" s="10">
+        <v>2</v>
+      </c>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
@@ -5771,8 +5828,10 @@
       <c r="G22" s="10">
         <v>3</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="H22" s="10">
+        <v>3</v>
+      </c>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36">
@@ -5788,8 +5847,8 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
@@ -5805,8 +5864,8 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36">
@@ -5828,8 +5887,12 @@
       <c r="G25" s="10">
         <v>1</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="H25" s="10">
+        <v>2</v>
+      </c>
+      <c r="I25" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36">
@@ -5845,8 +5908,8 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36">
@@ -5862,8 +5925,8 @@
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36">
@@ -5879,8 +5942,8 @@
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36">
@@ -5896,8 +5959,8 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="36">
@@ -5919,8 +5982,12 @@
       <c r="G30" s="10">
         <v>2</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="H30" s="10">
+        <v>1</v>
+      </c>
+      <c r="I30" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="36">
@@ -5936,8 +6003,8 @@
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="36">
@@ -5953,8 +6020,8 @@
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="36">
@@ -5970,8 +6037,8 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="36">
@@ -5987,8 +6054,8 @@
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="36">
@@ -6004,8 +6071,8 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="36">
@@ -6023,8 +6090,8 @@
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="36">
@@ -6040,8 +6107,10 @@
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
+      <c r="H37" s="10">
+        <v>1</v>
+      </c>
+      <c r="I37" s="10"/>
     </row>
     <row r="38" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="36">
@@ -6059,8 +6128,8 @@
         <v>670</v>
       </c>
       <c r="G38" s="10"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
     </row>
     <row r="39" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="36">
@@ -6080,8 +6149,8 @@
       <c r="G39" s="10">
         <v>1</v>
       </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
     </row>
     <row r="40" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="36">
@@ -6097,8 +6166,8 @@
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
     </row>
     <row r="41" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="36">
@@ -6116,8 +6185,8 @@
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
     </row>
     <row r="42" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="36">
@@ -6133,8 +6202,8 @@
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
     </row>
     <row r="45" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
@@ -6160,8 +6229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6171,21 +6240,21 @@
     <col min="5" max="5" width="12.7109375" style="93" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" style="93" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="93" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13" style="93" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="93" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
+      <c r="A1" s="106" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
     </row>
     <row r="2" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
@@ -6198,22 +6267,22 @@
         <v>602</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>1174</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>1175</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>1176</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>1177</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>1178</v>
-      </c>
       <c r="I2" s="9" t="s">
-        <v>1179</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6230,8 +6299,10 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33">
@@ -6247,8 +6318,8 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
@@ -6264,8 +6335,12 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="10">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
@@ -6281,8 +6356,8 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
@@ -6300,8 +6375,8 @@
         <v>1</v>
       </c>
       <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -6317,8 +6392,8 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
@@ -6336,8 +6411,8 @@
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
@@ -6353,8 +6428,8 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
@@ -6370,8 +6445,10 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
@@ -6387,8 +6464,8 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
@@ -6404,8 +6481,8 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
@@ -6423,8 +6500,8 @@
       <c r="G14" s="10">
         <v>1</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -6444,8 +6521,10 @@
       <c r="G15" s="10">
         <v>2</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="H15" s="10">
+        <v>1</v>
+      </c>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -6463,8 +6542,8 @@
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -6480,8 +6559,8 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -6503,8 +6582,12 @@
       <c r="G18" s="10">
         <v>2</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="H18" s="10">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -6526,8 +6609,12 @@
       <c r="G19" s="10">
         <v>3</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="H19" s="10">
+        <v>3</v>
+      </c>
+      <c r="I19" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
@@ -6543,8 +6630,8 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
@@ -6560,8 +6647,8 @@
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
@@ -6577,8 +6664,10 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
@@ -6600,8 +6689,12 @@
       <c r="G23" s="10">
         <v>3</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="H23" s="10">
+        <v>3</v>
+      </c>
+      <c r="I23" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
@@ -6617,8 +6710,8 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
@@ -6640,8 +6733,12 @@
       <c r="G25" s="10">
         <v>2</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="H25" s="10">
+        <v>3</v>
+      </c>
+      <c r="I25" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
@@ -6657,8 +6754,8 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
@@ -6674,8 +6771,8 @@
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
@@ -6691,8 +6788,8 @@
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
@@ -6708,8 +6805,8 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
@@ -6727,8 +6824,8 @@
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
@@ -6746,8 +6843,12 @@
       <c r="G31" s="10">
         <v>2</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="H31" s="10">
+        <v>1</v>
+      </c>
+      <c r="I31" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
@@ -6763,8 +6864,8 @@
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33">
@@ -6780,8 +6881,8 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="33">
@@ -6797,8 +6898,10 @@
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="H34" s="10">
+        <v>1</v>
+      </c>
+      <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33">
@@ -6814,8 +6917,8 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33">
@@ -6831,8 +6934,8 @@
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
@@ -6848,8 +6951,8 @@
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
     </row>
     <row r="38" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33">
@@ -6865,8 +6968,8 @@
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
     </row>
     <row r="39" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="33">
@@ -6882,8 +6985,8 @@
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
     </row>
     <row r="40" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="33">
@@ -6905,8 +7008,10 @@
       <c r="G40" s="10">
         <v>1</v>
       </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="33">
@@ -6926,8 +7031,10 @@
         <v>2</v>
       </c>
       <c r="G41" s="10"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="H41" s="10">
+        <v>2</v>
+      </c>
+      <c r="I41" s="10"/>
     </row>
     <row r="42" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="33">
@@ -6945,8 +7052,8 @@
         <v>1</v>
       </c>
       <c r="G42" s="10"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
     </row>
     <row r="43" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
@@ -7042,8 +7149,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7053,22 +7160,22 @@
     <col min="5" max="5" width="13.7109375" style="93" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="93" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="93" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="93" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="93" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
+      <c r="A1" s="106" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="103"/>
       <c r="J1" s="72"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7082,22 +7189,22 @@
         <v>2</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>1174</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>1175</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>1176</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>1177</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>1178</v>
-      </c>
       <c r="I2" s="9" t="s">
-        <v>1179</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7114,8 +7221,8 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="52">
@@ -7131,8 +7238,8 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52">
@@ -7152,8 +7259,12 @@
       <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="10">
+        <v>2</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="52">
@@ -7169,8 +7280,8 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52">
@@ -7192,8 +7303,12 @@
       <c r="G7" s="10">
         <v>2</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="H7" s="10">
+        <v>3</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52">
@@ -7215,8 +7330,10 @@
       <c r="G8" s="10">
         <v>1</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="H8" s="10">
+        <v>2</v>
+      </c>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52">
@@ -7232,8 +7349,8 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="52">
@@ -7249,8 +7366,8 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="52">
@@ -7272,8 +7389,10 @@
       <c r="G11" s="10">
         <v>2</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="H11" s="10">
+        <v>2</v>
+      </c>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="52">
@@ -7289,8 +7408,8 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52">
@@ -7306,8 +7425,8 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="52">
@@ -7327,8 +7446,8 @@
         <v>1</v>
       </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:10" s="49" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52">
@@ -7350,8 +7469,12 @@
       <c r="G15" s="10">
         <v>3</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="H15" s="10">
+        <v>2</v>
+      </c>
+      <c r="I15" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52">
@@ -7367,8 +7490,8 @@
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52">
@@ -7384,8 +7507,8 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52">
@@ -7407,8 +7530,10 @@
       <c r="G18" s="10">
         <v>2</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="H18" s="10">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="52">
@@ -7430,8 +7555,12 @@
       <c r="G19" s="10">
         <v>3</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="H19" s="10">
+        <v>2</v>
+      </c>
+      <c r="I19" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="52">
@@ -7447,8 +7576,8 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="52">
@@ -7466,8 +7595,8 @@
       <c r="G21" s="10">
         <v>1</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="52">
@@ -7489,8 +7618,10 @@
       <c r="G22" s="10">
         <v>1</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="52">
@@ -7510,8 +7641,8 @@
       <c r="G23" s="10">
         <v>1</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52">
@@ -7529,8 +7660,8 @@
       <c r="G24" s="10">
         <v>1</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="52">
@@ -7548,8 +7679,8 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="52">
@@ -7569,8 +7700,8 @@
       <c r="G26" s="10">
         <v>1</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="52">
@@ -7588,8 +7719,8 @@
         <v>1</v>
       </c>
       <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="52">
@@ -7605,8 +7736,8 @@
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="52">
@@ -7622,8 +7753,8 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52">
@@ -7641,8 +7772,10 @@
         <v>2</v>
       </c>
       <c r="G30" s="10"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:9" s="49" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="52">
@@ -7664,8 +7797,10 @@
       <c r="G31" s="10">
         <v>2</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="H31" s="10">
+        <v>1</v>
+      </c>
+      <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="52">
@@ -7687,8 +7822,8 @@
       <c r="G32" s="10">
         <v>1</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52">
@@ -7704,8 +7839,8 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="52">
@@ -7721,8 +7856,8 @@
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7765,8 +7900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7776,21 +7911,22 @@
     <col min="5" max="5" width="14" style="93" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" style="93" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" style="93" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="19"/>
+    <col min="8" max="8" width="12.7109375" style="93" customWidth="1"/>
+    <col min="9" max="9" width="13" style="93" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
+      <c r="A1" s="106" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
     </row>
     <row r="2" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="82" t="s">
@@ -7803,24 +7939,24 @@
         <v>2</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>1174</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>1175</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>1176</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>1177</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>1178</v>
-      </c>
       <c r="I2" s="9" t="s">
-        <v>1179</v>
-      </c>
-      <c r="J2" s="111"/>
+        <v>1198</v>
+      </c>
+      <c r="J2" s="102"/>
     </row>
     <row r="3" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32">
@@ -7838,8 +7974,9 @@
       </c>
       <c r="F3" s="94"/>
       <c r="G3" s="94"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32">
@@ -7859,8 +7996,8 @@
       <c r="G4" s="94">
         <v>1</v>
       </c>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
     </row>
     <row r="5" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32">
@@ -7876,8 +8013,8 @@
       <c r="E5" s="94"/>
       <c r="F5" s="94"/>
       <c r="G5" s="94"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
     </row>
     <row r="6" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32">
@@ -7899,8 +8036,8 @@
       <c r="G6" s="94">
         <v>2</v>
       </c>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
     </row>
     <row r="7" spans="1:10" s="49" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32">
@@ -7916,8 +8053,8 @@
       <c r="E7" s="94"/>
       <c r="F7" s="94"/>
       <c r="G7" s="94"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
       <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7938,8 +8075,12 @@
         <v>1</v>
       </c>
       <c r="G8" s="94"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
+      <c r="H8" s="94">
+        <v>3</v>
+      </c>
+      <c r="I8" s="94">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32">
@@ -7957,8 +8098,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="94"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
+      <c r="H9" s="94">
+        <v>1</v>
+      </c>
+      <c r="I9" s="94"/>
     </row>
     <row r="10" spans="1:10" s="49" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
@@ -7980,8 +8123,12 @@
       <c r="G10" s="94">
         <v>1</v>
       </c>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
+      <c r="H10" s="94">
+        <v>1</v>
+      </c>
+      <c r="I10" s="94">
+        <v>1</v>
+      </c>
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7998,8 +8145,8 @@
       <c r="E11" s="94"/>
       <c r="F11" s="94"/>
       <c r="G11" s="94"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
     </row>
     <row r="12" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
@@ -8017,8 +8164,8 @@
       </c>
       <c r="F12" s="94"/>
       <c r="G12" s="94"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
     </row>
     <row r="13" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
@@ -8034,8 +8181,8 @@
       <c r="E13" s="94"/>
       <c r="F13" s="94"/>
       <c r="G13" s="94"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
     </row>
     <row r="14" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
@@ -8051,8 +8198,8 @@
       <c r="E14" s="94"/>
       <c r="F14" s="94"/>
       <c r="G14" s="94"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
     </row>
     <row r="15" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32">
@@ -8068,8 +8215,8 @@
       <c r="E15" s="94"/>
       <c r="F15" s="94"/>
       <c r="G15" s="94"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
     </row>
     <row r="16" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
@@ -8085,8 +8232,8 @@
       <c r="E16" s="94"/>
       <c r="F16" s="94"/>
       <c r="G16" s="94"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
     </row>
     <row r="17" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32">
@@ -8102,8 +8249,8 @@
       <c r="E17" s="94"/>
       <c r="F17" s="94"/>
       <c r="G17" s="94"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
     </row>
     <row r="18" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32">
@@ -8119,8 +8266,10 @@
       <c r="E18" s="94"/>
       <c r="F18" s="94"/>
       <c r="G18" s="94"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32">
@@ -8136,8 +8285,8 @@
       <c r="E19" s="94"/>
       <c r="F19" s="94"/>
       <c r="G19" s="94"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
     </row>
     <row r="20" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
@@ -8153,8 +8302,10 @@
       <c r="E20" s="94"/>
       <c r="F20" s="94"/>
       <c r="G20" s="94"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
+      <c r="H20" s="94">
+        <v>1</v>
+      </c>
+      <c r="I20" s="94"/>
     </row>
     <row r="21" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32">
@@ -8176,8 +8327,10 @@
       <c r="G21" s="94">
         <v>1</v>
       </c>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
+      <c r="H21" s="94">
+        <v>1</v>
+      </c>
+      <c r="I21" s="94"/>
     </row>
     <row r="22" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32">
@@ -8195,8 +8348,10 @@
         <v>2</v>
       </c>
       <c r="G22" s="94"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32">
@@ -8214,8 +8369,8 @@
       <c r="G23" s="94">
         <v>1</v>
       </c>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
     </row>
     <row r="24" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32">
@@ -8233,8 +8388,8 @@
         <v>1</v>
       </c>
       <c r="G24" s="94"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
     </row>
     <row r="25" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32">
@@ -8256,8 +8411,8 @@
       <c r="G25" s="94">
         <v>1</v>
       </c>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
     </row>
     <row r="26" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32">
@@ -8273,8 +8428,8 @@
       <c r="E26" s="94"/>
       <c r="F26" s="94"/>
       <c r="G26" s="94"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
     </row>
     <row r="27" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32">
@@ -8292,8 +8447,8 @@
       <c r="G27" s="94">
         <v>3</v>
       </c>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
     </row>
     <row r="28" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32">
@@ -8311,8 +8466,10 @@
         <v>2</v>
       </c>
       <c r="G28" s="94"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
+      <c r="H28" s="94">
+        <v>1</v>
+      </c>
+      <c r="I28" s="94"/>
     </row>
     <row r="29" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32">
@@ -8328,8 +8485,8 @@
       <c r="E29" s="94"/>
       <c r="F29" s="94"/>
       <c r="G29" s="94"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
     </row>
     <row r="30" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32">
@@ -8349,8 +8506,10 @@
       <c r="G30" s="94">
         <v>2</v>
       </c>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32">
@@ -8372,8 +8531,8 @@
       <c r="G31" s="94">
         <v>3</v>
       </c>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
     </row>
     <row r="32" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32">
@@ -8391,8 +8550,8 @@
       <c r="G32" s="94">
         <v>1</v>
       </c>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
     </row>
     <row r="33" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32">
@@ -8408,8 +8567,8 @@
       <c r="E33" s="94"/>
       <c r="F33" s="94"/>
       <c r="G33" s="94"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
     </row>
     <row r="34" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32">
@@ -8431,8 +8590,12 @@
       <c r="G34" s="94">
         <v>3</v>
       </c>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
+      <c r="H34" s="94">
+        <v>3</v>
+      </c>
+      <c r="I34" s="94">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="32">
@@ -8448,8 +8611,8 @@
       <c r="E35" s="94"/>
       <c r="F35" s="94"/>
       <c r="G35" s="94"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
     </row>
     <row r="36" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="32">
@@ -8469,8 +8632,10 @@
       <c r="G36" s="94">
         <v>2</v>
       </c>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
+      <c r="H36" s="94">
+        <v>1</v>
+      </c>
+      <c r="I36" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8485,31 +8650,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="52.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="115"/>
     <col min="4" max="4" width="14.140625" style="93" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" style="93" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="93" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" style="93" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="93" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="93" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
+      <c r="A1" s="108" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
     </row>
     <row r="2" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
@@ -8522,22 +8688,22 @@
         <v>2</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>1174</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>1175</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>1176</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>1177</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>1178</v>
-      </c>
       <c r="I2" s="9" t="s">
-        <v>1179</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8562,8 +8728,12 @@
       <c r="G3" s="10">
         <v>2</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="10">
+        <v>3</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33">
@@ -8579,8 +8749,8 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
@@ -8596,8 +8766,8 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
@@ -8615,8 +8785,8 @@
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
@@ -8632,8 +8802,8 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -8657,8 +8827,12 @@
       <c r="G8" s="10">
         <v>2</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="H8" s="10">
+        <v>3</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
@@ -8678,8 +8852,8 @@
         <v>1</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
@@ -8695,8 +8869,8 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
@@ -8712,14 +8886,16 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="H11" s="10">
+        <v>3</v>
+      </c>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
         <v>10</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="36" t="s">
         <v>890</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -8733,14 +8909,16 @@
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="H12" s="10">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
         <v>11</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="35" t="s">
         <v>892</v>
       </c>
       <c r="C13" s="34" t="s">
@@ -8750,14 +8928,14 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>12</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="36" t="s">
         <v>326</v>
       </c>
       <c r="C14" s="33" t="s">
@@ -8767,14 +8945,16 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="H14" s="10">
+        <v>2</v>
+      </c>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>13</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="36" t="s">
         <v>895</v>
       </c>
       <c r="C15" s="33" t="s">
@@ -8788,8 +8968,8 @@
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -8805,14 +8985,14 @@
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>15</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="36" t="s">
         <v>899</v>
       </c>
       <c r="C17" s="33" t="s">
@@ -8822,8 +9002,8 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -8839,8 +9019,8 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -8856,8 +9036,8 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
@@ -8875,8 +9055,10 @@
       <c r="G20" s="10">
         <v>1</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="H20" s="10">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
@@ -8892,14 +9074,14 @@
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
         <v>20</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="38" t="s">
         <v>908</v>
       </c>
       <c r="C22" s="37" t="s">
@@ -8911,8 +9093,8 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
@@ -8928,14 +9110,14 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <v>22</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="35" t="s">
         <v>912</v>
       </c>
       <c r="C24" s="34" t="s">
@@ -8945,14 +9127,16 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
         <v>23</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="35" t="s">
         <v>914</v>
       </c>
       <c r="C25" s="34" t="s">
@@ -8970,14 +9154,16 @@
       <c r="G25" s="10">
         <v>2</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="H25" s="10">
+        <v>2</v>
+      </c>
+      <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>24</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="36" t="s">
         <v>916</v>
       </c>
       <c r="C26" s="33" t="s">
@@ -8989,14 +9175,14 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
         <v>25</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="35" t="s">
         <v>918</v>
       </c>
       <c r="C27" s="35" t="s">
@@ -9010,8 +9196,8 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
@@ -9027,8 +9213,8 @@
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
@@ -9044,8 +9230,8 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
@@ -9061,8 +9247,8 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
@@ -9078,14 +9264,14 @@
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
         <v>30</v>
       </c>
-      <c r="B32" s="33"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="36" t="s">
         <v>928</v>
       </c>
@@ -9101,8 +9287,10 @@
       <c r="G32" s="10">
         <v>1</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="H32" s="10">
+        <v>3</v>
+      </c>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33">
@@ -9118,8 +9306,8 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="33">
@@ -9139,14 +9327,14 @@
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33">
         <v>33</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="36" t="s">
         <v>933</v>
       </c>
       <c r="C35" s="33" t="s">
@@ -9156,8 +9344,8 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33">
@@ -9175,8 +9363,8 @@
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
@@ -9192,8 +9380,8 @@
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
     </row>
     <row r="38" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33">
@@ -9209,8 +9397,8 @@
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
     </row>
     <row r="39" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="33">
@@ -9226,14 +9414,14 @@
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
     </row>
     <row r="40" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="33">
         <v>38</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="28" t="s">
         <v>942</v>
       </c>
       <c r="C40" s="32" t="s">
@@ -9247,16 +9435,20 @@
         <v>1</v>
       </c>
       <c r="G40" s="10"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="H40" s="10">
+        <v>1</v>
+      </c>
+      <c r="I40" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="32">
         <v>39</v>
       </c>
-      <c r="B41" s="11"/>
+      <c r="B41" s="114"/>
       <c r="C41" s="99" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -9264,12 +9456,11 @@
         <v>1</v>
       </c>
       <c r="G41" s="10"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
     </row>
     <row r="42" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
       <c r="C42" s="31"/>
     </row>
   </sheetData>
@@ -9285,8 +9476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.85546875" defaultRowHeight="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9297,19 +9488,19 @@
     <col min="5" max="5" width="14.5703125" style="93" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="93" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="93" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="93" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="93" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
+      <c r="A1" s="110" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
     </row>
     <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
@@ -9322,22 +9513,22 @@
         <v>2</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>1174</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>1175</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>1176</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>1177</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>1178</v>
-      </c>
       <c r="I2" s="9" t="s">
-        <v>1179</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="49" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9352,8 +9543,8 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40">
@@ -9371,8 +9562,8 @@
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40">
@@ -9388,8 +9579,8 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40">
@@ -9409,8 +9600,8 @@
         <v>2</v>
       </c>
       <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40">
@@ -9426,8 +9617,8 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40">
@@ -9445,8 +9636,10 @@
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40">
@@ -9462,8 +9655,10 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40">
@@ -9479,8 +9674,10 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
@@ -9496,8 +9693,8 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
@@ -9513,8 +9710,8 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
@@ -9530,8 +9727,8 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
@@ -9551,8 +9748,10 @@
         <v>2</v>
       </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="H14" s="10">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" s="49" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
@@ -9568,8 +9767,8 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
@@ -9587,8 +9786,8 @@
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
@@ -9604,8 +9803,8 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
@@ -9621,8 +9820,10 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="H18" s="10">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
@@ -9638,8 +9839,8 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
@@ -9655,8 +9856,8 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
@@ -9672,8 +9873,8 @@
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
@@ -9691,8 +9892,8 @@
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
@@ -9708,8 +9909,8 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
@@ -9725,8 +9926,8 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
@@ -9748,8 +9949,12 @@
       <c r="G25" s="10">
         <v>2</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="H25" s="10">
+        <v>2</v>
+      </c>
+      <c r="I25" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
@@ -9765,8 +9970,8 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
@@ -9788,8 +9993,10 @@
       <c r="G27" s="10">
         <v>1</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
@@ -9805,8 +10012,8 @@
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
@@ -9828,8 +10035,12 @@
       <c r="G29" s="10">
         <v>3</v>
       </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="H29" s="10">
+        <v>3</v>
+      </c>
+      <c r="I29" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
@@ -9851,8 +10062,12 @@
       <c r="G30" s="10">
         <v>3</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="H30" s="10">
+        <v>2</v>
+      </c>
+      <c r="I30" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
@@ -9874,8 +10089,12 @@
       <c r="G31" s="10">
         <v>3</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="H31" s="10">
+        <v>2</v>
+      </c>
+      <c r="I31" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:9" s="49" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
@@ -9895,8 +10114,10 @@
         <v>1</v>
       </c>
       <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="H32" s="10">
+        <v>1</v>
+      </c>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
@@ -9912,8 +10133,8 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
@@ -9931,8 +10152,8 @@
         <v>1</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
@@ -9940,7 +10161,7 @@
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="32" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="10"/>
@@ -9948,8 +10169,10 @@
       <c r="G35" s="10">
         <v>1</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="H35" s="10">
+        <v>1</v>
+      </c>
+      <c r="I35" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9964,8 +10187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9976,21 +10199,21 @@
     <col min="5" max="5" width="14.7109375" style="93" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" style="93" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="93" customWidth="1"/>
-    <col min="8" max="9" width="14.5703125" customWidth="1"/>
+    <col min="8" max="9" width="14.5703125" style="93" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
+      <c r="A1" s="112" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
     </row>
     <row r="2" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
@@ -10003,22 +10226,22 @@
         <v>2</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>1174</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>1175</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>1176</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>1177</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>1178</v>
-      </c>
       <c r="I2" s="9" t="s">
-        <v>1179</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -10043,8 +10266,10 @@
       <c r="G3" s="10">
         <v>2</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53">
@@ -10066,8 +10291,10 @@
       <c r="G4" s="10">
         <v>1</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="10">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="53">
@@ -10085,8 +10312,8 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53">
@@ -10104,8 +10331,8 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53">
@@ -10121,8 +10348,8 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="53">
@@ -10146,8 +10373,12 @@
       <c r="G8" s="10">
         <v>3</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="H8" s="10">
+        <v>2</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53">
@@ -10163,8 +10394,8 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53">
@@ -10180,8 +10411,8 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53">
@@ -10197,8 +10428,8 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53">
@@ -10220,8 +10451,8 @@
       <c r="G12" s="10">
         <v>1</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53">
@@ -10237,8 +10468,10 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="H13" s="10">
+        <v>1</v>
+      </c>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53">
@@ -10254,8 +10487,8 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53">
@@ -10275,8 +10508,8 @@
       <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53">
@@ -10292,8 +10525,8 @@
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53">
@@ -10313,8 +10546,8 @@
       <c r="G17" s="10">
         <v>1</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53">
@@ -10338,8 +10571,8 @@
       <c r="G18" s="10">
         <v>1</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53">
@@ -10355,8 +10588,10 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="H19" s="10">
+        <v>1</v>
+      </c>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="53">
@@ -10374,8 +10609,8 @@
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="53">
@@ -10395,8 +10630,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="H21" s="10">
+        <v>1</v>
+      </c>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="53">
@@ -10412,8 +10649,8 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="53">
@@ -10429,8 +10666,8 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53">
@@ -10450,8 +10687,10 @@
       <c r="G24" s="10">
         <v>2</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="H24" s="10">
+        <v>1</v>
+      </c>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53">
@@ -10471,8 +10710,10 @@
       <c r="G25" s="10">
         <v>1</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="H25" s="10">
+        <v>1</v>
+      </c>
+      <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="53">
@@ -10488,8 +10729,8 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53">
@@ -10511,8 +10752,8 @@
       <c r="G27" s="10">
         <v>1</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53">
@@ -10528,8 +10769,8 @@
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53">
@@ -10545,8 +10786,10 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="H29" s="10">
+        <v>1</v>
+      </c>
+      <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53">
@@ -10562,8 +10805,8 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53">
@@ -10579,8 +10822,8 @@
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="52">
@@ -10588,7 +10831,7 @@
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="32" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -10596,8 +10839,8 @@
       <c r="G32" s="10">
         <v>1</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10611,8 +10854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10623,22 +10866,22 @@
     <col min="5" max="5" width="12.42578125" style="93" customWidth="1"/>
     <col min="6" max="6" width="11" style="93" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" style="93" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="93" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="93" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
+      <c r="A1" s="105" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
@@ -10651,22 +10894,22 @@
         <v>2</v>
       </c>
       <c r="D2" s="96" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>1175</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>1176</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>1177</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>1178</v>
-      </c>
       <c r="I2" s="9" t="s">
-        <v>1179</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -10683,8 +10926,8 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53">
@@ -10700,8 +10943,8 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="53">
@@ -10717,8 +10960,8 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53">
@@ -10734,8 +10977,8 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53">
@@ -10753,8 +10996,8 @@
       <c r="G7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="53">
@@ -10770,8 +11013,8 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53">
@@ -10787,8 +11030,8 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53">
@@ -10804,8 +11047,8 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53">
@@ -10818,7 +11061,7 @@
         <v>1050</v>
       </c>
       <c r="D11" s="97" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10">
@@ -10827,8 +11070,10 @@
       <c r="G11" s="10">
         <v>1</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53">
@@ -10844,8 +11089,12 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="H12" s="10">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53">
@@ -10861,8 +11110,8 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53">
@@ -10878,8 +11127,8 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53">
@@ -10895,8 +11144,8 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53">
@@ -10909,7 +11158,7 @@
         <v>1059</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="E16" s="10">
         <v>3</v>
@@ -10920,8 +11169,8 @@
       <c r="G16" s="10">
         <v>2</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53">
@@ -10937,8 +11186,8 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53">
@@ -10951,7 +11200,7 @@
         <v>1063</v>
       </c>
       <c r="D18" s="97" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10">
@@ -10960,8 +11209,12 @@
       <c r="G18" s="10">
         <v>2</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="H18" s="10">
+        <v>2</v>
+      </c>
+      <c r="I18" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53">
@@ -10974,15 +11227,15 @@
         <v>1065</v>
       </c>
       <c r="D19" s="97" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10">
         <v>1</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50"/>
@@ -11107,8 +11360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11118,22 +11371,22 @@
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="93" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
+      <c r="A1" s="104" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
     </row>
     <row r="2" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
@@ -11161,7 +11414,7 @@
         <v>1167</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>1168</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
@@ -11219,7 +11472,9 @@
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="I5" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -11400,7 +11655,9 @@
         <v>1</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="H15" s="10">
+        <v>1</v>
+      </c>
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
@@ -11436,7 +11693,9 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="H17" s="10">
+        <v>1</v>
+      </c>
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
@@ -11472,7 +11731,9 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="H19" s="10">
+        <v>1</v>
+      </c>
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11550,8 +11811,12 @@
       <c r="G23" s="10">
         <v>1</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
+      <c r="H23" s="10">
+        <v>1</v>
+      </c>
+      <c r="I23" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
@@ -11611,8 +11876,12 @@
       <c r="G26" s="10">
         <v>1</v>
       </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
+      <c r="H26" s="10">
+        <v>1</v>
+      </c>
+      <c r="I26" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
@@ -11645,7 +11914,9 @@
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="H28" s="10">
+        <v>2</v>
+      </c>
       <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
@@ -11820,8 +12091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11829,22 +12100,22 @@
     <col min="1" max="1" width="8.28515625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="93" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
+      <c r="A1" s="104" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
@@ -11872,7 +12143,7 @@
         <v>1167</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>1168</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11897,7 +12168,9 @@
       <c r="G3" s="10">
         <v>2</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11914,7 +12187,9 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="H4" s="10">
+        <v>1</v>
+      </c>
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12011,8 +12286,12 @@
       <c r="G9" s="10">
         <v>2</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61">
@@ -12098,7 +12377,9 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="10">
+        <v>1</v>
+      </c>
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12331,7 +12612,9 @@
       <c r="G27" s="10">
         <v>1</v>
       </c>
-      <c r="H27" s="10"/>
+      <c r="H27" s="10">
+        <v>1</v>
+      </c>
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12634,8 +12917,12 @@
       <c r="G44" s="10">
         <v>2</v>
       </c>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
+      <c r="H44" s="10">
+        <v>2</v>
+      </c>
+      <c r="I44" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="61">
@@ -12657,7 +12944,9 @@
       <c r="G45" s="10">
         <v>2</v>
       </c>
-      <c r="H45" s="10"/>
+      <c r="H45" s="10">
+        <v>2</v>
+      </c>
       <c r="I45" s="10"/>
     </row>
   </sheetData>
@@ -12673,8 +12962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12684,22 +12973,23 @@
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="8" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="93" customWidth="1"/>
     <col min="9" max="9" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
+      <c r="A1" s="104" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
     </row>
     <row r="2" spans="1:9" s="69" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="68" t="s">
@@ -12727,7 +13017,7 @@
         <v>1167</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>1168</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12764,7 +13054,9 @@
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="I4" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63">
@@ -12816,7 +13108,9 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="H7" s="10">
+        <v>1</v>
+      </c>
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -12931,7 +13225,9 @@
         <v>1</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="I13" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="63">
@@ -12983,7 +13279,9 @@
         <v>1</v>
       </c>
       <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="H16" s="10">
+        <v>2</v>
+      </c>
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -13003,7 +13301,9 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
+      <c r="I17" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="63">
@@ -13025,8 +13325,12 @@
       <c r="G18" s="10">
         <v>2</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="H18" s="10">
+        <v>2</v>
+      </c>
+      <c r="I18" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="63">
@@ -13046,7 +13350,9 @@
         <v>1</v>
       </c>
       <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="H19" s="10">
+        <v>1</v>
+      </c>
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -13105,8 +13411,12 @@
       <c r="G22" s="10">
         <v>2</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
+      <c r="H22" s="10">
+        <v>2</v>
+      </c>
+      <c r="I22" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="63">
@@ -13175,7 +13485,9 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="H26" s="10">
+        <v>1</v>
+      </c>
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -13337,7 +13649,9 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
+      <c r="I35" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="63">
@@ -13361,8 +13675,12 @@
       <c r="G36" s="10">
         <v>2</v>
       </c>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
+      <c r="H36" s="10">
+        <v>2</v>
+      </c>
+      <c r="I36" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="63">
@@ -13455,7 +13773,9 @@
         <v>2</v>
       </c>
       <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
+      <c r="I41" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="63">
@@ -13475,8 +13795,12 @@
       <c r="G42" s="10">
         <v>2</v>
       </c>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
+      <c r="H42" s="10">
+        <v>1</v>
+      </c>
+      <c r="I42" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="63">
@@ -13552,8 +13876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13570,17 +13894,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
+      <c r="A1" s="106" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
@@ -13608,7 +13932,7 @@
         <v>1167</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>1168</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13627,7 +13951,9 @@
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
       <c r="I3" s="10"/>
       <c r="K3" s="49"/>
     </row>
@@ -13649,7 +13975,9 @@
       <c r="G4" s="10">
         <v>1</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="10">
+        <v>2</v>
+      </c>
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13731,8 +14059,12 @@
       <c r="G8" s="10">
         <v>2</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="H8" s="10">
+        <v>2</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="70">
@@ -13756,8 +14088,12 @@
       <c r="G9" s="10">
         <v>2</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="H9" s="10">
+        <v>2</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="70">
@@ -13775,7 +14111,9 @@
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="H10" s="10">
+        <v>2</v>
+      </c>
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13828,7 +14166,9 @@
         <v>1</v>
       </c>
       <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="H13" s="10">
+        <v>1</v>
+      </c>
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:11" s="49" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13851,8 +14191,12 @@
       <c r="G14" s="10">
         <v>2</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="H14" s="10">
+        <v>2</v>
+      </c>
+      <c r="I14" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="70">
@@ -13895,8 +14239,12 @@
       <c r="G16" s="10">
         <v>2</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="H16" s="10">
+        <v>2</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="70">
@@ -14088,7 +14436,9 @@
       <c r="G27" s="10">
         <v>1</v>
       </c>
-      <c r="H27" s="10"/>
+      <c r="H27" s="10">
+        <v>2</v>
+      </c>
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" s="49" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14113,7 +14463,9 @@
       <c r="G28" s="10">
         <v>1</v>
       </c>
-      <c r="H28" s="10"/>
+      <c r="H28" s="10">
+        <v>2</v>
+      </c>
       <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14208,8 +14560,12 @@
       <c r="G33" s="10">
         <v>2</v>
       </c>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
+      <c r="H33" s="10">
+        <v>2</v>
+      </c>
+      <c r="I33" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="70">
@@ -14233,8 +14589,12 @@
       <c r="G34" s="10">
         <v>2</v>
       </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
+      <c r="H34" s="10">
+        <v>2</v>
+      </c>
+      <c r="I34" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="70">
@@ -14271,7 +14631,9 @@
         <v>1</v>
       </c>
       <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
+      <c r="H36" s="10">
+        <v>1</v>
+      </c>
       <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14322,7 +14684,9 @@
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
+      <c r="H39" s="10">
+        <v>1</v>
+      </c>
       <c r="I39" s="10"/>
     </row>
     <row r="40" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14376,8 +14740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.85546875" defaultRowHeight="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14386,22 +14750,22 @@
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="93" customWidth="1"/>
     <col min="9" max="9" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
+      <c r="A1" s="106" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -14414,22 +14778,22 @@
         <v>301</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>1174</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>1175</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>1176</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>1177</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>1178</v>
-      </c>
       <c r="I2" s="9" t="s">
-        <v>1179</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14448,8 +14812,12 @@
       <c r="G3" s="10">
         <v>2</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
@@ -14472,7 +14840,9 @@
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="I4" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
@@ -14496,8 +14866,12 @@
       <c r="G5" s="10">
         <v>2</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="H5" s="10">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
@@ -14644,7 +15018,9 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="H13" s="10">
+        <v>1</v>
+      </c>
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14669,8 +15045,12 @@
       <c r="G14" s="10">
         <v>2</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="H14" s="10">
+        <v>3</v>
+      </c>
+      <c r="I14" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
@@ -14686,8 +15066,12 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="H15" s="10">
+        <v>2</v>
+      </c>
+      <c r="I15" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
@@ -14711,8 +15095,12 @@
       <c r="G16" s="10">
         <v>3</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="H16" s="10">
+        <v>3</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
@@ -14753,8 +15141,12 @@
       <c r="G18" s="10">
         <v>3</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="H18" s="10">
+        <v>2</v>
+      </c>
+      <c r="I18" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
@@ -14816,7 +15208,9 @@
         <v>1</v>
       </c>
       <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="H21" s="10">
+        <v>1</v>
+      </c>
       <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14860,7 +15254,9 @@
       <c r="G23" s="10">
         <v>3</v>
       </c>
-      <c r="H23" s="10"/>
+      <c r="H23" s="10">
+        <v>3</v>
+      </c>
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14910,8 +15306,12 @@
       <c r="G25" s="10">
         <v>2</v>
       </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
+      <c r="H25" s="10">
+        <v>3</v>
+      </c>
+      <c r="I25" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
@@ -14952,7 +15352,9 @@
       <c r="G27" s="10">
         <v>2</v>
       </c>
-      <c r="H27" s="10"/>
+      <c r="H27" s="10">
+        <v>1</v>
+      </c>
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14977,8 +15379,12 @@
       <c r="G28" s="10">
         <v>3</v>
       </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
+      <c r="H28" s="10">
+        <v>3</v>
+      </c>
+      <c r="I28" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
@@ -15002,7 +15408,9 @@
       <c r="G29" s="10">
         <v>2</v>
       </c>
-      <c r="H29" s="10"/>
+      <c r="H29" s="10">
+        <v>2</v>
+      </c>
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15073,8 +15481,12 @@
       <c r="G32" s="10">
         <v>3</v>
       </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
+      <c r="H32" s="10">
+        <v>3</v>
+      </c>
+      <c r="I32" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
@@ -15123,8 +15535,12 @@
       <c r="G34" s="10">
         <v>3</v>
       </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
+      <c r="H34" s="10">
+        <v>3</v>
+      </c>
+      <c r="I34" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
@@ -15160,7 +15576,9 @@
         <v>1</v>
       </c>
       <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
+      <c r="I36" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
@@ -15298,7 +15716,9 @@
       <c r="G43" s="10">
         <v>2</v>
       </c>
-      <c r="H43" s="10"/>
+      <c r="H43" s="10">
+        <v>3</v>
+      </c>
       <c r="I43" s="10"/>
     </row>
     <row r="44" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15321,8 +15741,12 @@
       <c r="G44" s="10">
         <v>3</v>
       </c>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
+      <c r="H44" s="10">
+        <v>1</v>
+      </c>
+      <c r="I44" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
@@ -15380,7 +15804,9 @@
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
+      <c r="H47" s="10">
+        <v>1</v>
+      </c>
       <c r="I47" s="10"/>
     </row>
     <row r="48" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15389,7 +15815,7 @@
       </c>
       <c r="B48" s="52"/>
       <c r="C48" s="52" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="D48" s="52">
         <v>2</v>
@@ -15401,7 +15827,9 @@
       <c r="G48" s="52">
         <v>2</v>
       </c>
-      <c r="H48" s="52"/>
+      <c r="H48" s="52">
+        <v>3</v>
+      </c>
       <c r="I48" s="52"/>
     </row>
     <row r="49" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15410,7 +15838,7 @@
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="26" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -15442,8 +15870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.85546875" defaultRowHeight="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15454,22 +15882,22 @@
     <col min="5" max="5" width="13" style="93" customWidth="1"/>
     <col min="6" max="6" width="13.140625" style="93" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" style="93" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="93" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="93" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
+      <c r="A1" s="106" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -15482,22 +15910,22 @@
         <v>301</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>1174</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>1175</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>1176</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>1177</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>1178</v>
-      </c>
       <c r="I2" s="9" t="s">
-        <v>1179</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15514,8 +15942,8 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
@@ -15539,8 +15967,12 @@
       <c r="G4" s="10">
         <v>3</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="10">
+        <v>3</v>
+      </c>
+      <c r="I4" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -15562,8 +15994,12 @@
       <c r="G5" s="10">
         <v>2</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="10">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -15579,8 +16015,8 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -15596,8 +16032,8 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -15613,8 +16049,8 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
@@ -15634,8 +16070,8 @@
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
@@ -15659,8 +16095,10 @@
       <c r="G10" s="10">
         <v>3</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="H10" s="10">
+        <v>2</v>
+      </c>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
@@ -15682,8 +16120,8 @@
       <c r="G11" s="10">
         <v>2</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
@@ -15699,8 +16137,8 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
@@ -15720,8 +16158,10 @@
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="H13" s="10">
+        <v>1</v>
+      </c>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
@@ -15739,8 +16179,8 @@
       <c r="G14" s="10">
         <v>1</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -15760,8 +16200,10 @@
         <v>3</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="H15" s="10">
+        <v>1</v>
+      </c>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -15779,8 +16221,10 @@
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="H16" s="10">
+        <v>1</v>
+      </c>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
@@ -15800,8 +16244,8 @@
       <c r="G17" s="10">
         <v>1</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -15825,8 +16269,12 @@
       <c r="G18" s="10">
         <v>1</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="H18" s="10">
+        <v>2</v>
+      </c>
+      <c r="I18" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
@@ -15848,8 +16296,12 @@
       <c r="G19" s="10">
         <v>1</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="H19" s="10">
+        <v>1</v>
+      </c>
+      <c r="I19" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
@@ -15865,8 +16317,8 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
@@ -15884,8 +16336,8 @@
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
@@ -15903,8 +16355,8 @@
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
@@ -15928,8 +16380,12 @@
       <c r="G23" s="10">
         <v>3</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="H23" s="10">
+        <v>3</v>
+      </c>
+      <c r="I23" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
@@ -15947,8 +16403,8 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
@@ -15970,8 +16426,8 @@
       <c r="G25" s="10">
         <v>2</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
@@ -15987,8 +16443,8 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
@@ -16010,8 +16466,12 @@
         <v>2</v>
       </c>
       <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="H27" s="10">
+        <v>3</v>
+      </c>
+      <c r="I27" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
@@ -16035,8 +16495,12 @@
       <c r="G28" s="10">
         <v>2</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="H28" s="10">
+        <v>1</v>
+      </c>
+      <c r="I28" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
@@ -16056,8 +16520,8 @@
       <c r="G29" s="10">
         <v>1</v>
       </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
@@ -16073,8 +16537,8 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
@@ -16090,8 +16554,10 @@
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="H31" s="10">
+        <v>3</v>
+      </c>
+      <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
@@ -16107,8 +16573,8 @@
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
@@ -16132,8 +16598,12 @@
       <c r="G33" s="10">
         <v>3</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="H33" s="10">
+        <v>3</v>
+      </c>
+      <c r="I33" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
@@ -16157,8 +16627,12 @@
       <c r="G34" s="10">
         <v>3</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="H34" s="10">
+        <v>3</v>
+      </c>
+      <c r="I34" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
@@ -16174,8 +16648,8 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
@@ -16193,8 +16667,8 @@
       <c r="G36" s="10">
         <v>2</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
@@ -16214,8 +16688,8 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
     </row>
     <row r="38" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
@@ -16233,8 +16707,8 @@
       <c r="G38" s="10">
         <v>1</v>
       </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
     </row>
     <row r="39" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
@@ -16250,8 +16724,8 @@
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
     </row>
     <row r="40" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
@@ -16267,8 +16741,8 @@
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
     </row>
     <row r="41" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
@@ -16292,8 +16766,12 @@
       <c r="G41" s="10">
         <v>3</v>
       </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="H41" s="10">
+        <v>3</v>
+      </c>
+      <c r="I41" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
@@ -16313,8 +16791,8 @@
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
     </row>
     <row r="43" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
@@ -16336,8 +16814,10 @@
       <c r="G43" s="10">
         <v>1</v>
       </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
+      <c r="H43" s="10">
+        <v>1</v>
+      </c>
+      <c r="I43" s="10"/>
     </row>
     <row r="44" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
@@ -16361,8 +16841,12 @@
       <c r="G44" s="10">
         <v>3</v>
       </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
+      <c r="H44" s="10">
+        <v>3</v>
+      </c>
+      <c r="I44" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
@@ -16378,8 +16862,8 @@
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
     </row>
     <row r="46" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
@@ -16395,8 +16879,8 @@
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
     </row>
     <row r="47" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
@@ -16414,8 +16898,10 @@
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
+      <c r="H47" s="10">
+        <v>1</v>
+      </c>
+      <c r="I47" s="10"/>
     </row>
     <row r="48" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
@@ -16431,8 +16917,8 @@
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
     </row>
     <row r="49" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
@@ -16456,8 +16942,10 @@
       <c r="G49" s="10">
         <v>3</v>
       </c>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
+      <c r="H49" s="10">
+        <v>3</v>
+      </c>
+      <c r="I49" s="10"/>
     </row>
     <row r="50" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
@@ -16475,8 +16963,10 @@
       <c r="G50" s="10">
         <v>1</v>
       </c>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
+      <c r="H50" s="10">
+        <v>1</v>
+      </c>
+      <c r="I50" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16490,8 +16980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16503,22 +16993,22 @@
     <col min="5" max="5" width="11.85546875" style="93" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="93" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" style="93" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="93" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="93" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
+      <c r="A1" s="106" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
       <c r="J1" s="72"/>
       <c r="K1" s="72"/>
       <c r="L1" s="75"/>
@@ -16535,22 +17025,22 @@
         <v>2</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>1174</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>1175</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>1176</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>1177</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>1178</v>
-      </c>
       <c r="I2" s="9" t="s">
-        <v>1179</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16567,8 +17057,10 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="52">
@@ -16590,8 +17082,8 @@
       <c r="G4" s="10">
         <v>3</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52">
@@ -16607,8 +17099,8 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="52">
@@ -16626,8 +17118,8 @@
         <v>2</v>
       </c>
       <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52">
@@ -16643,8 +17135,10 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="H7" s="10">
+        <v>1</v>
+      </c>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52">
@@ -16660,8 +17154,8 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52">
@@ -16677,8 +17171,8 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="52">
@@ -16698,8 +17192,12 @@
       <c r="G10" s="10">
         <v>2</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="52">
@@ -16715,8 +17213,10 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="52">
@@ -16736,8 +17236,10 @@
       <c r="G12" s="10">
         <v>1</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="H12" s="10">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52">
@@ -16753,8 +17255,8 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="52">
@@ -16772,8 +17274,8 @@
         <v>1</v>
       </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52">
@@ -16789,8 +17291,12 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="H15" s="10">
+        <v>1</v>
+      </c>
+      <c r="I15" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52">
@@ -16810,8 +17316,12 @@
       <c r="G16" s="10">
         <v>3</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="H16" s="10">
+        <v>3</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52">
@@ -16829,8 +17339,10 @@
       <c r="G17" s="10">
         <v>3</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="H17" s="10">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52">
@@ -16848,8 +17360,10 @@
       <c r="G18" s="10">
         <v>1</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="52">
@@ -16865,8 +17379,8 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="52">
@@ -16882,8 +17396,8 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="52">
@@ -16905,8 +17419,12 @@
       <c r="G21" s="10">
         <v>3</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="H21" s="10">
+        <v>3</v>
+      </c>
+      <c r="I21" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:9" s="49" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="52">
@@ -16924,8 +17442,10 @@
       <c r="G22" s="10">
         <v>1</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="H22" s="10">
+        <v>1</v>
+      </c>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="52">
@@ -16943,8 +17463,8 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52">
@@ -16960,8 +17480,8 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" s="49" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="52">
@@ -16977,8 +17497,8 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="52">
@@ -16996,8 +17516,8 @@
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="52">
@@ -17015,8 +17535,10 @@
       <c r="G27" s="10">
         <v>2</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="H27" s="10">
+        <v>1</v>
+      </c>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="52">
@@ -17032,8 +17554,8 @@
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="52">
@@ -17049,8 +17571,8 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52">
@@ -17072,8 +17594,12 @@
       <c r="G30" s="10">
         <v>2</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="H30" s="10">
+        <v>3</v>
+      </c>
+      <c r="I30" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="52">
@@ -17091,8 +17617,12 @@
         <v>2</v>
       </c>
       <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="H31" s="10">
+        <v>1</v>
+      </c>
+      <c r="I31" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="52">
@@ -17108,8 +17638,8 @@
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52">
@@ -17129,8 +17659,8 @@
       <c r="G33" s="10">
         <v>1</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="52">
@@ -17152,8 +17682,12 @@
       <c r="G34" s="10">
         <v>3</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="H34" s="10">
+        <v>3</v>
+      </c>
+      <c r="I34" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
@@ -17161,7 +17695,7 @@
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="59" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="10">
@@ -17173,8 +17707,12 @@
       <c r="G35" s="10">
         <v>3</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="H35" s="10">
+        <v>3</v>
+      </c>
+      <c r="I35" s="10">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -17189,8 +17727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17202,22 +17740,22 @@
     <col min="5" max="5" width="14" style="93" customWidth="1"/>
     <col min="6" max="6" width="13.140625" style="93" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" style="93" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="93" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="93" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
+      <c r="A1" s="106" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
@@ -17230,22 +17768,22 @@
         <v>2</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>1174</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>1175</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>1176</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>1177</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>1178</v>
-      </c>
       <c r="I2" s="9" t="s">
-        <v>1179</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17262,8 +17800,12 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33">
@@ -17279,8 +17821,8 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
@@ -17300,8 +17842,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="10">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
@@ -17323,8 +17867,12 @@
       <c r="G6" s="10">
         <v>3</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="H6" s="10">
+        <v>3</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
@@ -17340,8 +17888,8 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -17359,8 +17907,8 @@
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" s="49" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
@@ -17382,8 +17930,10 @@
       <c r="G9" s="10">
         <v>1</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
@@ -17399,8 +17949,8 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
@@ -17416,8 +17966,8 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
@@ -17437,8 +17987,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="H12" s="10">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
@@ -17456,8 +18008,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="H13" s="10">
+        <v>1</v>
+      </c>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
@@ -17475,8 +18029,8 @@
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -17498,8 +18052,10 @@
       <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="H15" s="10">
+        <v>2</v>
+      </c>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -17521,8 +18077,12 @@
       <c r="G16" s="10">
         <v>3</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="H16" s="10">
+        <v>3</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -17544,8 +18104,12 @@
       <c r="G17" s="10">
         <v>3</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="H17" s="10">
+        <v>2</v>
+      </c>
+      <c r="I17" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -17565,8 +18129,12 @@
         <v>2</v>
       </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="H18" s="10">
+        <v>3</v>
+      </c>
+      <c r="I18" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -17582,8 +18150,10 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="H19" s="10">
+        <v>1</v>
+      </c>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
@@ -17599,8 +18169,10 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="H20" s="10">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
@@ -17616,8 +18188,8 @@
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
@@ -17633,8 +18205,8 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
@@ -17652,8 +18224,8 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
@@ -17671,8 +18243,8 @@
         <v>1</v>
       </c>
       <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
@@ -17694,8 +18266,12 @@
       <c r="G25" s="10">
         <v>3</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="H25" s="10">
+        <v>3</v>
+      </c>
+      <c r="I25" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
@@ -17717,8 +18293,12 @@
       <c r="G26" s="10">
         <v>3</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="H26" s="10">
+        <v>3</v>
+      </c>
+      <c r="I26" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
@@ -17734,8 +18314,8 @@
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
@@ -17751,8 +18331,8 @@
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
@@ -17768,8 +18348,8 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
@@ -17787,8 +18367,8 @@
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
@@ -17806,8 +18386,8 @@
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
@@ -17829,8 +18409,12 @@
       <c r="G32" s="10">
         <v>3</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="H32" s="10">
+        <v>3</v>
+      </c>
+      <c r="I32" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33">
@@ -17846,8 +18430,8 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
     </row>
     <row r="37" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
